--- a/data/n2v/tables/model-1-1325-20230829-38.xlsx
+++ b/data/n2v/tables/model-1-1325-20230829-38.xlsx
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
